--- a/evaluations/SGLang Decoding breakdown.xlsx
+++ b/evaluations/SGLang Decoding breakdown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luoxinhao/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2596D12-E48F-DF42-A793-0606E7014692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA3EE5F-ACE1-B54C-8B39-462B0A3C60A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10260" windowWidth="51200" windowHeight="26480" xr2:uid="{25FDF7AB-5506-334E-9CC5-2F50B89F30AB}"/>
+    <workbookView xWindow="16820" yWindow="5660" windowWidth="34200" windowHeight="19280" xr2:uid="{25FDF7AB-5506-334E-9CC5-2F50B89F30AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
   <si>
     <t>H100</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>DownProjection+splitkreduce</t>
+  </si>
+  <si>
+    <t>H20</t>
   </si>
 </sst>
 </file>
@@ -454,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E5BBA1-8D97-C746-B705-8B1BE3064961}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,9 +628,7 @@
         <v>102.71899999999999</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1">
-        <v>1356</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -872,8 +873,12 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -889,11 +894,15 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -906,11 +915,19 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -922,6 +939,167 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
+    <row r="21" spans="1:15" ht="29" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2.464</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" ht="29" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2">
+        <v>41.088000000000001</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" ht="29" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2">
+        <v>11.456</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" ht="29" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2">
+        <v>8.8640000000000008</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2.1760000000000002</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" ht="29" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2">
+        <v>18.207999999999998</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" ht="29" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2.6560000000000001</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" ht="29" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2">
+        <v>171</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" ht="29" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2.8149999999999999</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" ht="29" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2">
+        <v>43</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" ht="29" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" ht="29" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="2">
+        <v>303</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="2">
+        <v>309</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
